--- a/data-raw/File lists for functions/IN_HCPCS.xlsx
+++ b/data-raw/File lists for functions/IN_HCPCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahemmig\Desktop\USRDS project\R function definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katta\Desktop\Einstein research\usRds\data-raw\File lists for functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6BE7D-BDD0-4617-99D4-0E21C9172C8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7822A6E-90DF-4646-A3D5-7469F5FE8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Year</t>
   </si>
@@ -343,6 +343,81 @@
   </si>
   <si>
     <t>sn_det_2016</t>
+  </si>
+  <si>
+    <t>hh_det_2017</t>
+  </si>
+  <si>
+    <t>hs_det_2017</t>
+  </si>
+  <si>
+    <t>ip_det_2017</t>
+  </si>
+  <si>
+    <t>op_det_2017</t>
+  </si>
+  <si>
+    <t>sn_det_2017</t>
+  </si>
+  <si>
+    <t>hh_det_2018</t>
+  </si>
+  <si>
+    <t>hs_det_2018</t>
+  </si>
+  <si>
+    <t>ip_det_2018</t>
+  </si>
+  <si>
+    <t>op_det_2018</t>
+  </si>
+  <si>
+    <t>sn_det_2018</t>
+  </si>
+  <si>
+    <t>hh_det_2019</t>
+  </si>
+  <si>
+    <t>hs_det_2019</t>
+  </si>
+  <si>
+    <t>ip_det_2019</t>
+  </si>
+  <si>
+    <t>op_det_2019</t>
+  </si>
+  <si>
+    <t>sn_det_2019</t>
+  </si>
+  <si>
+    <t>hh_det_2020</t>
+  </si>
+  <si>
+    <t>hs_det_2020</t>
+  </si>
+  <si>
+    <t>ip_det_2020</t>
+  </si>
+  <si>
+    <t>op_det_2020</t>
+  </si>
+  <si>
+    <t>sn_det_2020</t>
+  </si>
+  <si>
+    <t>hh_det_2021</t>
+  </si>
+  <si>
+    <t>hs_det_2021</t>
+  </si>
+  <si>
+    <t>ip_det_2021</t>
+  </si>
+  <si>
+    <t>op_det_2021</t>
+  </si>
+  <si>
+    <t>sn_det_2021</t>
   </si>
 </sst>
 </file>
@@ -398,9 +473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +513,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +619,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,18 +769,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DD9F47-8E00-445A-90A0-21879819D54B}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -721,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -729,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2006</v>
       </c>
@@ -737,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -745,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -753,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -761,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -769,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -777,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -785,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -793,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -801,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2007</v>
       </c>
@@ -809,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -817,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -825,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2007</v>
       </c>
@@ -833,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2007</v>
       </c>
@@ -841,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -849,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -857,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -865,7 +940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -873,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -881,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -889,7 +964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -897,7 +972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -905,7 +980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2008</v>
       </c>
@@ -913,7 +988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2008</v>
       </c>
@@ -921,7 +996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2008</v>
       </c>
@@ -929,7 +1004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2008</v>
       </c>
@@ -937,7 +1012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -945,7 +1020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -953,7 +1028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2008</v>
       </c>
@@ -961,7 +1036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -969,7 +1044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2008</v>
       </c>
@@ -977,7 +1052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2008</v>
       </c>
@@ -985,7 +1060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2008</v>
       </c>
@@ -993,7 +1068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2009</v>
       </c>
@@ -1001,7 +1076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2009</v>
       </c>
@@ -1009,7 +1084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2009</v>
       </c>
@@ -1017,7 +1092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -1025,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2009</v>
       </c>
@@ -1033,7 +1108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2009</v>
       </c>
@@ -1041,7 +1116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2009</v>
       </c>
@@ -1049,7 +1124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -1057,7 +1132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2009</v>
       </c>
@@ -1065,7 +1140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2009</v>
       </c>
@@ -1073,7 +1148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2009</v>
       </c>
@@ -1081,7 +1156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2009</v>
       </c>
@@ -1089,7 +1164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2009</v>
       </c>
@@ -1097,7 +1172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2009</v>
       </c>
@@ -1105,7 +1180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -1113,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -1121,7 +1196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -1129,7 +1204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -1137,7 +1212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -1145,7 +1220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2010</v>
       </c>
@@ -1153,7 +1228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2010</v>
       </c>
@@ -1161,7 +1236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2010</v>
       </c>
@@ -1169,7 +1244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2010</v>
       </c>
@@ -1177,7 +1252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2010</v>
       </c>
@@ -1185,7 +1260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2010</v>
       </c>
@@ -1193,7 +1268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2010</v>
       </c>
@@ -1201,7 +1276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2010</v>
       </c>
@@ -1209,7 +1284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -1217,7 +1292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2010</v>
       </c>
@@ -1225,7 +1300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -1233,7 +1308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -1241,7 +1316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -1249,7 +1324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -1257,7 +1332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -1265,7 +1340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -1273,7 +1348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -1281,7 +1356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2011</v>
       </c>
@@ -1289,7 +1364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -1297,7 +1372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2011</v>
       </c>
@@ -1305,7 +1380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -1313,7 +1388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -1321,7 +1396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -1329,7 +1404,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2011</v>
       </c>
@@ -1337,7 +1412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2011</v>
       </c>
@@ -1345,7 +1420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2011</v>
       </c>
@@ -1353,7 +1428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2012</v>
       </c>
@@ -1361,7 +1436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2013</v>
       </c>
@@ -1369,7 +1444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2013</v>
       </c>
@@ -1377,7 +1452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2013</v>
       </c>
@@ -1385,7 +1460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2013</v>
       </c>
@@ -1393,7 +1468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2013</v>
       </c>
@@ -1401,7 +1476,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2014</v>
       </c>
@@ -1409,7 +1484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2014</v>
       </c>
@@ -1417,7 +1492,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2014</v>
       </c>
@@ -1425,7 +1500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2014</v>
       </c>
@@ -1433,7 +1508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2014</v>
       </c>
@@ -1441,7 +1516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2015</v>
       </c>
@@ -1449,7 +1524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2015</v>
       </c>
@@ -1457,7 +1532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2015</v>
       </c>
@@ -1465,7 +1540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2015</v>
       </c>
@@ -1473,7 +1548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2015</v>
       </c>
@@ -1481,7 +1556,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -1489,7 +1564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -1497,7 +1572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2016</v>
       </c>
@@ -1505,7 +1580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2016</v>
       </c>
@@ -1513,12 +1588,212 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2016</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2017</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2017</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2017</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2017</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2017</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2018</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2018</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2018</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2018</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2018</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2019</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2019</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2019</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2019</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2019</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2020</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2020</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2020</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2020</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2020</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2021</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2021</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2021</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2021</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2021</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/File lists for functions/IN_HCPCS.xlsx
+++ b/data-raw/File lists for functions/IN_HCPCS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katta\Desktop\Einstein research\usRds\data-raw\File lists for functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7822A6E-90DF-4646-A3D5-7469F5FE8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FF10E-55DF-41E6-BB70-FEBB6902B789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Year</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>sn_det_2021</t>
+  </si>
+  <si>
+    <t>ip_det_2020q1q2</t>
+  </si>
+  <si>
+    <t>ip_det_2021q1q2</t>
+  </si>
+  <si>
+    <t>ip_det_2022q1</t>
   </si>
 </sst>
 </file>
@@ -769,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DD9F47-8E00-445A-90A0-21879819D54B}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,10 +1727,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1729,7 +1738,7 @@
         <v>2020</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1737,7 +1746,7 @@
         <v>2020</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1745,7 +1754,7 @@
         <v>2020</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1753,23 +1762,23 @@
         <v>2020</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1777,7 +1786,7 @@
         <v>2021</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1785,7 +1794,7 @@
         <v>2021</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,7 +1802,31 @@
         <v>2021</v>
       </c>
       <c r="B127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2021</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2021</v>
+      </c>
+      <c r="B129" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2022</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/File lists for functions/IN_HCPCS.xlsx
+++ b/data-raw/File lists for functions/IN_HCPCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katta\Desktop\Einstein research\usRds\data-raw\File lists for functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FF10E-55DF-41E6-BB70-FEBB6902B789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555592F0-E4FB-4ADA-9047-8D6EFD35D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B3370FB-3882-4B27-9D0A-BC8FB8DD34AB}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B118" t="s">
         <v>128</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
